--- a/data/yahoofin/ZROZ_yahoofin_historical_data.xlsx
+++ b/data/yahoofin/ZROZ_yahoofin_historical_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G202"/>
+  <dimension ref="A1:G204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5467,7 +5467,7 @@
         <v>67.16999800000001</v>
       </c>
       <c r="G201" t="n">
-        <v>506400</v>
+        <v>506700</v>
       </c>
     </row>
     <row r="202">
@@ -5480,19 +5480,69 @@
         <v>66.400002</v>
       </c>
       <c r="C202" t="n">
-        <v>67.31500200000001</v>
+        <v>67.519997</v>
       </c>
       <c r="D202" t="n">
-        <v>64.880501</v>
+        <v>64.800003</v>
       </c>
       <c r="E202" t="n">
-        <v>65.038101</v>
+        <v>64.83000199999999</v>
       </c>
       <c r="F202" t="n">
-        <v>65.038101</v>
+        <v>64.83000199999999</v>
       </c>
       <c r="G202" t="n">
-        <v>680428</v>
+        <v>781500</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2023-10-20</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>64.93000000000001</v>
+      </c>
+      <c r="C203" t="n">
+        <v>65.449997</v>
+      </c>
+      <c r="D203" t="n">
+        <v>64.540001</v>
+      </c>
+      <c r="E203" t="n">
+        <v>65.150002</v>
+      </c>
+      <c r="F203" t="n">
+        <v>65.150002</v>
+      </c>
+      <c r="G203" t="n">
+        <v>550100</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>64.93000000000001</v>
+      </c>
+      <c r="C204" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="D204" t="n">
+        <v>64.26840199999999</v>
+      </c>
+      <c r="E204" t="n">
+        <v>64.277496</v>
+      </c>
+      <c r="F204" t="n">
+        <v>64.277496</v>
+      </c>
+      <c r="G204" t="n">
+        <v>66718</v>
       </c>
     </row>
   </sheetData>

--- a/data/yahoofin/ZROZ_yahoofin_historical_data.xlsx
+++ b/data/yahoofin/ZROZ_yahoofin_historical_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G204"/>
+  <dimension ref="A1:G205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,7 +539,7 @@
         <v>92.220001</v>
       </c>
       <c r="F4" t="n">
-        <v>90.741478</v>
+        <v>90.74148599999999</v>
       </c>
       <c r="G4" t="n">
         <v>120100</v>
@@ -789,7 +789,7 @@
         <v>95</v>
       </c>
       <c r="F14" t="n">
-        <v>93.476913</v>
+        <v>93.476906</v>
       </c>
       <c r="G14" t="n">
         <v>276900</v>
@@ -814,7 +814,7 @@
         <v>94.550003</v>
       </c>
       <c r="F15" t="n">
-        <v>93.03413399999999</v>
+        <v>93.034126</v>
       </c>
       <c r="G15" t="n">
         <v>613600</v>
@@ -839,7 +839,7 @@
         <v>96.43000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>94.88397999999999</v>
+        <v>94.883987</v>
       </c>
       <c r="G16" t="n">
         <v>128400</v>
@@ -1164,7 +1164,7 @@
         <v>92.44000200000001</v>
       </c>
       <c r="F29" t="n">
-        <v>90.95796199999999</v>
+        <v>90.957954</v>
       </c>
       <c r="G29" t="n">
         <v>148600</v>
@@ -1239,7 +1239,7 @@
         <v>92.08000199999999</v>
       </c>
       <c r="F32" t="n">
-        <v>90.603722</v>
+        <v>90.603729</v>
       </c>
       <c r="G32" t="n">
         <v>191800</v>
@@ -1264,7 +1264,7 @@
         <v>90.029999</v>
       </c>
       <c r="F33" t="n">
-        <v>88.58659400000001</v>
+        <v>88.586586</v>
       </c>
       <c r="G33" t="n">
         <v>335500</v>
@@ -1289,7 +1289,7 @@
         <v>91.08000199999999</v>
       </c>
       <c r="F34" t="n">
-        <v>89.619759</v>
+        <v>89.619766</v>
       </c>
       <c r="G34" t="n">
         <v>179300</v>
@@ -1364,7 +1364,7 @@
         <v>91.349998</v>
       </c>
       <c r="F37" t="n">
-        <v>89.88542200000001</v>
+        <v>89.885429</v>
       </c>
       <c r="G37" t="n">
         <v>106600</v>
@@ -1389,7 +1389,7 @@
         <v>89.599998</v>
       </c>
       <c r="F38" t="n">
-        <v>88.16349</v>
+        <v>88.163483</v>
       </c>
       <c r="G38" t="n">
         <v>147200</v>
@@ -1439,7 +1439,7 @@
         <v>90.620003</v>
       </c>
       <c r="F40" t="n">
-        <v>89.16713</v>
+        <v>89.167137</v>
       </c>
       <c r="G40" t="n">
         <v>97500</v>
@@ -1489,7 +1489,7 @@
         <v>88.410004</v>
       </c>
       <c r="F42" t="n">
-        <v>86.99256099999999</v>
+        <v>86.992569</v>
       </c>
       <c r="G42" t="n">
         <v>185200</v>
@@ -1764,7 +1764,7 @@
         <v>96.480003</v>
       </c>
       <c r="F53" t="n">
-        <v>94.933189</v>
+        <v>94.933182</v>
       </c>
       <c r="G53" t="n">
         <v>171500</v>
@@ -1789,7 +1789,7 @@
         <v>95.489998</v>
       </c>
       <c r="F54" t="n">
-        <v>93.959045</v>
+        <v>93.959053</v>
       </c>
       <c r="G54" t="n">
         <v>102800</v>
@@ -5527,22 +5527,47 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>64.93000000000001</v>
+        <v>64.5</v>
       </c>
       <c r="C204" t="n">
-        <v>64.5</v>
+        <v>67.199997</v>
       </c>
       <c r="D204" t="n">
-        <v>64.26840199999999</v>
+        <v>64.029999</v>
       </c>
       <c r="E204" t="n">
-        <v>64.277496</v>
+        <v>66.290001</v>
       </c>
       <c r="F204" t="n">
-        <v>64.277496</v>
+        <v>66.290001</v>
       </c>
       <c r="G204" t="n">
-        <v>66718</v>
+        <v>854900</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2023-10-24</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>66.699997</v>
+      </c>
+      <c r="C205" t="n">
+        <v>67.7948</v>
+      </c>
+      <c r="D205" t="n">
+        <v>66.0401</v>
+      </c>
+      <c r="E205" t="n">
+        <v>67.7948</v>
+      </c>
+      <c r="F205" t="n">
+        <v>67.7948</v>
+      </c>
+      <c r="G205" t="n">
+        <v>370709</v>
       </c>
     </row>
   </sheetData>
